--- a/HTML_StatusBook.xlsx
+++ b/HTML_StatusBook.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.0.20.3\EITShare\UI.UX_Corner\ADMC_Share\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="885" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="885" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="01.System Admin" sheetId="1" r:id="rId1"/>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="120">
   <si>
     <t>File Name</t>
   </si>
@@ -254,12 +249,18 @@
     <t>Payment_Proposal_Tab_7</t>
   </si>
   <si>
+    <t>01.Login</t>
+  </si>
+  <si>
     <t>03.Proposal</t>
   </si>
   <si>
     <t>Annotation</t>
   </si>
   <si>
+    <t>Joshy</t>
+  </si>
+  <si>
     <t>Create_Proposal_AddPayment</t>
   </si>
   <si>
@@ -275,9 +276,6 @@
     <t>Proposals_Details_Evaluation_Result-DueDateExceed</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Proposals_Details_ExportSlide</t>
   </si>
   <si>
@@ -293,6 +291,9 @@
     <t>Similar Proposals_add</t>
   </si>
   <si>
+    <t>04.Chat</t>
+  </si>
+  <si>
     <t>05.Manage Suppliers</t>
   </si>
   <si>
@@ -302,24 +303,30 @@
     <t>All_Suppliers_AddEditDeleteNew</t>
   </si>
   <si>
-    <t>Bundle view</t>
+    <t>06.Bundle view</t>
   </si>
   <si>
     <t>Proposal Bundles</t>
   </si>
   <si>
-    <t>CHannel req</t>
+    <t>07.CHannel req</t>
   </si>
   <si>
     <t>Channel_Requirements_2</t>
   </si>
   <si>
-    <t>Dynamic Tab</t>
+    <t>08.Dynamic Tab</t>
+  </si>
+  <si>
+    <t>09.Feedback</t>
   </si>
   <si>
     <t>EvaluatorAnnotation</t>
   </si>
   <si>
+    <t>joshy</t>
+  </si>
+  <si>
     <t>Proposals_Details_Evaluation_Form</t>
   </si>
   <si>
@@ -329,18 +336,15 @@
     <t>Commercial</t>
   </si>
   <si>
-    <t>01.Login</t>
-  </si>
-  <si>
-    <t>04.Chat</t>
-  </si>
-  <si>
     <t>Marketing</t>
   </si>
   <si>
     <t>Proposals_Rating</t>
   </si>
   <si>
+    <t>Not started</t>
+  </si>
+  <si>
     <t>03.ChannelRequirements</t>
   </si>
   <si>
@@ -357,6 +361,9 @@
   </si>
   <si>
     <t>VerifyDelivery_new</t>
+  </si>
+  <si>
+    <t>Prajin</t>
   </si>
   <si>
     <t>04.Recommendations</t>
@@ -386,8 +393,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,8 +438,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,7 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,24 +604,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -472,11 +785,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -496,27 +1051,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -774,27 +1371,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="72.85546875" customWidth="1"/>
+    <col min="1" max="1" width="72.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="50.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -808,14 +1405,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
+    <row r="2" ht="18.75" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -823,12 +1420,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" ht="15.75" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -836,7 +1433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -844,12 +1441,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" ht="15.75" spans="1:1">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -857,7 +1454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -865,7 +1462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -873,12 +1470,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
+    <row r="11" ht="15.75" spans="1:1">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -886,7 +1483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -894,7 +1491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -902,16 +1499,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="9" t="s">
+    <row r="15" ht="15.75" spans="1:1">
+      <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -919,7 +1516,7 @@
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -927,22 +1524,22 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75">
-      <c r="A21" s="9" t="s">
+    <row r="21" ht="15.75" spans="1:1">
+      <c r="A21" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -970,8 +1567,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75">
-      <c r="A25" s="9" t="s">
+    <row r="25" ht="15.75" spans="1:1">
+      <c r="A25" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -991,8 +1588,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75">
-      <c r="A28" s="9" t="s">
+    <row r="28" ht="15.75" spans="1:1">
+      <c r="A28" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1006,27 +1603,380 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="72.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="36.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="50.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:1">
+      <c r="A4" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:1">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:1">
+      <c r="A11" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:1">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="24" ht="15.75" spans="1:1">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="27" ht="15.75" spans="1:1">
+      <c r="A27" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="72.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="36.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="50.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:1">
+      <c r="A4" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:1">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:1">
+      <c r="A15" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="1:1">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="27" ht="15.75" spans="1:1">
+      <c r="A27" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="72.85546875" customWidth="1"/>
+    <col min="1" max="1" width="72.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="50.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,14 +1990,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
+    <row r="2" ht="18.75" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1055,12 +2005,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" ht="15.75" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1068,7 +2018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1076,12 +2026,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" ht="15.75" spans="1:1">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
@@ -1089,7 +2039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1097,7 +2047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1105,374 +2055,45 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    <row r="11" ht="15.75" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75">
-      <c r="A20" s="9"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.75">
-      <c r="A24" s="9"/>
-    </row>
-    <row r="27" spans="1:1" ht="15.75">
-      <c r="A27" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B16:B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="72.85546875" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75">
-      <c r="A2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75">
-      <c r="A21" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75">
-      <c r="A24" s="9"/>
-    </row>
-    <row r="27" spans="1:2" ht="15.75">
-      <c r="A27" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B17:B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="72.85546875" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75">
-      <c r="A2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="9" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:1">
+      <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1480,7 +2101,7 @@
       <c r="A17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1488,7 +2109,7 @@
       <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1496,49 +2117,51 @@
       <c r="A19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75">
-      <c r="A21" s="9"/>
-    </row>
-    <row r="25" spans="1:2" ht="15.75">
-      <c r="A25" s="9"/>
-    </row>
-    <row r="28" spans="1:2" ht="15.75">
-      <c r="A28" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:1">
+      <c r="A21" s="10"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:1">
+      <c r="A25" s="10"/>
+    </row>
+    <row r="28" ht="15.75" spans="1:1">
+      <c r="A28" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="72.85546875" customWidth="1"/>
+    <col min="1" max="1" width="72.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="50.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1552,14 +2175,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
+    <row r="2" ht="18.75" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1567,12 +2190,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" ht="15.75" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1580,7 +2203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1588,12 +2211,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" ht="15.75" spans="1:1">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
@@ -1601,7 +2224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1609,7 +2232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1617,98 +2240,106 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
+    <row r="11" ht="15.75" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75">
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="72.85546875" customWidth="1"/>
+    <col min="1" max="1" width="72.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="50.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1722,14 +2353,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
+    <row r="2" ht="18.75" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1737,12 +2368,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" ht="15.75" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1750,7 +2381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1758,12 +2389,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" ht="15.75" spans="1:1">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
@@ -1771,7 +2402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1779,7 +2410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1787,51 +2418,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
+    <row r="11" ht="15.75" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="15"/>
-    </row>
-    <row r="16" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75">
-      <c r="A17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:1">
+      <c r="A17" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1843,37 +2476,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75">
-      <c r="A21" s="9"/>
-    </row>
-    <row r="25" spans="1:2" ht="15.75">
-      <c r="A25" s="9"/>
-    </row>
-    <row r="28" spans="1:2" ht="15.75">
-      <c r="A28" s="9"/>
+    <row r="21" ht="15.75" spans="1:1">
+      <c r="A21" s="10"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:1">
+      <c r="A25" s="10"/>
+    </row>
+    <row r="28" ht="15.75" spans="1:1">
+      <c r="A28" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="72.85546875" customWidth="1"/>
+    <col min="1" max="1" width="72.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="50.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1887,14 +2522,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
+    <row r="2" ht="18.75" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1902,12 +2537,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" ht="15.75" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1915,7 +2550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1923,12 +2558,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" ht="15.75" spans="1:1">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
@@ -1936,7 +2571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1944,7 +2579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1952,80 +2587,84 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
+    <row r="11" ht="15.75" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="15"/>
-    </row>
-    <row r="16" spans="1:4">
+        <v>119</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75">
-      <c r="A21" s="9"/>
-    </row>
-    <row r="25" spans="1:1" ht="15.75">
-      <c r="A25" s="9"/>
-    </row>
-    <row r="28" spans="1:1" ht="15.75">
-      <c r="A28" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:1">
+      <c r="A21" s="10"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:1">
+      <c r="A25" s="10"/>
+    </row>
+    <row r="28" ht="15.75" spans="1:1">
+      <c r="A28" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="72.85546875" customWidth="1"/>
+    <col min="1" max="1" width="72.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="50.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2039,14 +2678,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
+    <row r="2" ht="18.75" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2054,12 +2693,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" ht="15.75" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2067,7 +2706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2075,12 +2714,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" ht="15.75" spans="1:1">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -2088,7 +2727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -2096,74 +2735,76 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75">
+    <row r="10" ht="15.75" spans="1:1">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75">
-      <c r="A19" s="9"/>
-    </row>
-    <row r="23" spans="1:1" ht="15.75">
-      <c r="A23" s="9"/>
-    </row>
-    <row r="26" spans="1:1" ht="15.75">
-      <c r="A26" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="1:1">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="23" ht="15.75" spans="1:1">
+      <c r="A23" s="10"/>
+    </row>
+    <row r="26" ht="15.75" spans="1:1">
+      <c r="A26" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="72.85546875" customWidth="1"/>
+    <col min="1" max="1" width="72.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="50.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2177,14 +2818,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
+    <row r="2" ht="18.75" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2192,12 +2833,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" ht="15.75" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2205,7 +2846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2213,12 +2854,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" ht="15.75" spans="1:1">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
@@ -2226,7 +2867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -2234,7 +2875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2242,38 +2883,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
+    <row r="11" ht="15.75" spans="1:1">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75">
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:1">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:1">
       <c r="A14" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2314,57 +2955,57 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:1">
       <c r="A22" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="B26" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2372,14 +3013,14 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:1">
       <c r="A30" s="13" t="s">
         <v>52</v>
       </c>
@@ -2432,8 +3073,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75">
-      <c r="A37" s="9" t="s">
+    <row r="37" ht="15.75" spans="1:1">
+      <c r="A37" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2447,26 +3088,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="72.85546875" customWidth="1"/>
+    <col min="1" max="1" width="72.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="50.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2480,14 +3123,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
+    <row r="2" ht="18.75" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
         <v>61</v>
       </c>
@@ -2495,7 +3138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>62</v>
       </c>
@@ -2503,7 +3146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
         <v>63</v>
       </c>
@@ -2511,7 +3154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
         <v>64</v>
       </c>
@@ -2519,12 +3162,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" ht="15.75" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2532,12 +3175,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75">
+    <row r="9" ht="15.75" spans="1:1">
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -2545,7 +3188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -2553,25 +3196,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75">
+    <row r="12" ht="15.75" spans="1:1">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75">
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="1:1">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
         <v>67</v>
       </c>
@@ -2579,7 +3222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>68</v>
       </c>
@@ -2603,8 +3246,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75">
-      <c r="A19" s="9" t="s">
+    <row r="19" ht="15.75" spans="1:1">
+      <c r="A19" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2617,7 +3260,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2664,37 +3307,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:1">
       <c r="A27" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -2702,20 +3345,20 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="B32" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -2723,14 +3366,14 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:1">
       <c r="A36" s="13" t="s">
         <v>52</v>
       </c>
@@ -2783,8 +3426,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75">
-      <c r="A43" s="9" t="s">
+    <row r="43" ht="15.75" spans="1:1">
+      <c r="A43" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2798,26 +3441,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="72.85546875" customWidth="1"/>
+    <col min="1" max="1" width="72.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="50.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2831,14 +3476,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
+    <row r="2" ht="18.75" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2846,12 +3491,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" ht="15.75" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2859,7 +3504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2867,70 +3512,76 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" ht="15.75" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
@@ -2940,7 +3591,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>6</v>
@@ -2948,41 +3599,47 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>81</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="A21" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>6</v>
@@ -2990,15 +3647,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75">
+    <row r="25" ht="15.75" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3025,14 +3682,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75">
-      <c r="A29" s="9" t="s">
-        <v>86</v>
+    <row r="29" ht="15.75" spans="1:1">
+      <c r="A29" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>6</v>
@@ -3040,41 +3697,41 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75">
-      <c r="A32" s="9" t="s">
-        <v>89</v>
+    <row r="32" ht="15.75" spans="1:1">
+      <c r="A32" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75">
-      <c r="A34" s="9" t="s">
-        <v>91</v>
+    <row r="34" ht="15.75" spans="1:1">
+      <c r="A34" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75">
-      <c r="A36" s="9" t="s">
-        <v>93</v>
+    <row r="36" ht="15.75" spans="1:1">
+      <c r="A36" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3086,16 +3743,16 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75">
-      <c r="A39" s="9" t="s">
-        <v>59</v>
+    <row r="39" ht="15.75" spans="1:1">
+      <c r="A39" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3108,27 +3765,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="72.85546875" customWidth="1"/>
+    <col min="1" max="1" width="72.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="50.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3142,14 +3801,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
+    <row r="2" ht="18.75" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3157,12 +3816,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" ht="15.75" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -3170,7 +3829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -3178,12 +3837,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" ht="15.75" spans="1:1">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
@@ -3191,7 +3850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -3199,7 +3858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3207,49 +3866,51 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
+    <row r="11" ht="15.75" spans="1:1">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:1">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:1">
       <c r="A13" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="9"/>
-    </row>
-    <row r="21" spans="1:1" ht="15.75">
-      <c r="A21" s="9"/>
-    </row>
-    <row r="25" spans="1:1" ht="15.75">
-      <c r="A25" s="9"/>
-    </row>
-    <row r="28" spans="1:1" ht="15.75">
-      <c r="A28" s="9"/>
+    <row r="15" ht="15.75" spans="1:1">
+      <c r="A15" s="10"/>
+    </row>
+    <row r="21" ht="15.75" spans="1:1">
+      <c r="A21" s="10"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:1">
+      <c r="A25" s="10"/>
+    </row>
+    <row r="28" ht="15.75" spans="1:1">
+      <c r="A28" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="72.85546875" customWidth="1"/>
+    <col min="1" max="1" width="72.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="50.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3263,14 +3924,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
+    <row r="2" ht="18.75" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3278,12 +3939,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" ht="15.75" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -3291,7 +3952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -3299,12 +3960,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" ht="15.75" spans="1:1">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
@@ -3312,7 +3973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -3320,7 +3981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3328,108 +3989,113 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
+    <row r="11" ht="15.75" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="10"/>
-    </row>
-    <row r="20" spans="1:2">
+    <row r="19" spans="1:1">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:1">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:1">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:1">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:1">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="10"/>
-    </row>
-    <row r="26" spans="1:2">
+    <row r="25" spans="1:1">
+      <c r="A25" s="11"/>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:1">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:1">
       <c r="A28" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="72.85546875" customWidth="1"/>
+    <col min="1" max="1" width="72.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="50.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3443,14 +4109,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
+    <row r="2" ht="18.75" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3458,12 +4124,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" ht="15.75" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -3471,7 +4137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -3479,12 +4145,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" ht="15.75" spans="1:1">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
@@ -3492,7 +4158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -3500,7 +4166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3508,79 +4174,84 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
+    <row r="11" ht="15.75" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75">
-      <c r="A20" s="9"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.75">
-      <c r="A24" s="9"/>
-    </row>
-    <row r="27" spans="1:1" ht="15.75">
-      <c r="A27" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:1">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="24" ht="15.75" spans="1:1">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="27" ht="15.75" spans="1:1">
+      <c r="A27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="72.85546875" customWidth="1"/>
+    <col min="1" max="1" width="72.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="50.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3594,14 +4265,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
+    <row r="2" ht="18.75" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3609,12 +4280,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" ht="15.75" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -3622,7 +4293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -3630,12 +4301,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" ht="15.75" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
@@ -3643,7 +4314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -3651,7 +4322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3659,58 +4330,62 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
+    <row r="11" ht="15.75" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75">
-      <c r="A21" s="9"/>
-    </row>
-    <row r="25" spans="1:1" ht="15.75">
-      <c r="A25" s="9"/>
-    </row>
-    <row r="28" spans="1:1" ht="15.75">
-      <c r="A28" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:1">
+      <c r="A21" s="10"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:1">
+      <c r="A25" s="10"/>
+    </row>
+    <row r="28" ht="15.75" spans="1:1">
+      <c r="A28" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>